--- a/SBTF_data/ml4rt_output/trained_models/combined_predictions_20240330.xlsx
+++ b/SBTF_data/ml4rt_output/trained_models/combined_predictions_20240330.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JohnvanOsta\Documents\GitHub\ml4rt\SBTF_data\ml4rt_output\trained_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38BA9C2-FF3E-4EAF-9F67-9E06F43C11D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9684545B-839A-42CA-93F4-F66478A52735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$V$407</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -117,18 +120,18 @@
     <t>3</t>
   </si>
   <si>
-    <t>AwI</t>
-  </si>
-  <si>
     <t>Angulation with
 intersect</t>
   </si>
   <si>
-    <t>AwD</t>
+    <t>Angulation with
+distance</t>
   </si>
   <si>
-    <t>Angulation with
-distance</t>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>Biangulation</t>
   </si>
 </sst>
 </file>
@@ -473,13 +476,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V407"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +550,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44229.331250000003</v>
       </c>
@@ -615,7 +618,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44229.333333333299</v>
       </c>
@@ -683,7 +686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44454.620833333298</v>
       </c>
@@ -751,7 +754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44454.622916666704</v>
       </c>
@@ -819,7 +822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44454.625</v>
       </c>
@@ -887,7 +890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44454.627083333296</v>
       </c>
@@ -955,7 +958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44454.629166666702</v>
       </c>
@@ -1023,7 +1026,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44454.631249999999</v>
       </c>
@@ -1091,7 +1094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44454.65</v>
       </c>
@@ -1159,7 +1162,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44454.652083333298</v>
       </c>
@@ -1227,7 +1230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44456.439583333296</v>
       </c>
@@ -1295,7 +1298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44456.441666666702</v>
       </c>
@@ -1363,7 +1366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44457.408333333296</v>
       </c>
@@ -1431,7 +1434,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44457.412499999999</v>
       </c>
@@ -1499,7 +1502,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44457.414583333302</v>
       </c>
@@ -1567,7 +1570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>44457.416666666701</v>
       </c>
@@ -1635,7 +1638,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>44457.756249999999</v>
       </c>
@@ -1703,7 +1706,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>44457.758333333302</v>
       </c>
@@ -1771,7 +1774,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>44457.760416666701</v>
       </c>
@@ -1839,7 +1842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>44457.762499999997</v>
       </c>
@@ -1907,7 +1910,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>44457.764583333301</v>
       </c>
@@ -1975,7 +1978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>44457.766666666699</v>
       </c>
@@ -2043,7 +2046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>44842.472916666702</v>
       </c>
@@ -2111,7 +2114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>44842.474999999999</v>
       </c>
@@ -2179,7 +2182,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>44842.556250000001</v>
       </c>
@@ -2247,7 +2250,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>44842.558333333298</v>
       </c>
@@ -2315,7 +2318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>44842.560416666704</v>
       </c>
@@ -2383,7 +2386,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>44844.339583333298</v>
       </c>
@@ -2451,7 +2454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>44844.341666666704</v>
       </c>
@@ -2519,7 +2522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>44844.65625</v>
       </c>
@@ -2587,7 +2590,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>44844.658333333296</v>
       </c>
@@ -2655,7 +2658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>44844.660416666702</v>
       </c>
@@ -2723,7 +2726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>44844.662499999999</v>
       </c>
@@ -2791,7 +2794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>44844.664583333302</v>
       </c>
@@ -2859,7 +2862,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>44844.666666666701</v>
       </c>
@@ -2927,7 +2930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>44846.545833333301</v>
       </c>
@@ -2995,7 +2998,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>44846.547916666699</v>
       </c>
@@ -3063,7 +3066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>44846.55</v>
       </c>
@@ -3131,7 +3134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>44846.556250000001</v>
       </c>
@@ -3199,7 +3202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>44846.558333333298</v>
       </c>
@@ -3267,7 +3270,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>44846.564583333296</v>
       </c>
@@ -3335,7 +3338,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>44846.566666666702</v>
       </c>
@@ -3403,7 +3406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>44847.452083333301</v>
       </c>
@@ -3471,7 +3474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44847.454166666699</v>
       </c>
@@ -3539,7 +3542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>44847.456250000003</v>
       </c>
@@ -3607,7 +3610,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>44847.458333333299</v>
       </c>
@@ -3675,7 +3678,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>44981.366666666698</v>
       </c>
@@ -3743,7 +3746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>44981.368750000001</v>
       </c>
@@ -3811,7 +3814,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>44981.370833333298</v>
       </c>
@@ -3879,7 +3882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>44981.435416666704</v>
       </c>
@@ -3947,7 +3950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>44981.4375</v>
       </c>
@@ -4015,7 +4018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>44981.439583333296</v>
       </c>
@@ -4083,7 +4086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>44981.441666666702</v>
       </c>
@@ -4151,7 +4154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>44981.443749999999</v>
       </c>
@@ -4219,7 +4222,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>44981.466666666704</v>
       </c>
@@ -4287,7 +4290,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>44981.46875</v>
       </c>
@@ -4355,7 +4358,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>44981.470833333296</v>
       </c>
@@ -4423,7 +4426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>44981.472916666702</v>
       </c>
@@ -4491,7 +4494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>44981.474999999999</v>
       </c>
@@ -4559,7 +4562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>44981.477083333302</v>
       </c>
@@ -4627,7 +4630,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>44983.383333333302</v>
       </c>
@@ -4695,7 +4698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>44983.385416666701</v>
       </c>
@@ -4763,7 +4766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>44983.387499999997</v>
       </c>
@@ -4831,7 +4834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>44983.391666666699</v>
       </c>
@@ -4899,7 +4902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>44983.393750000003</v>
       </c>
@@ -4967,7 +4970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>44983.443749999999</v>
       </c>
@@ -5035,7 +5038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>44983.445833333302</v>
       </c>
@@ -5103,7 +5106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>44983.447916666701</v>
       </c>
@@ -5171,7 +5174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>44983.45</v>
       </c>
@@ -5239,7 +5242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>44983.452083333301</v>
       </c>
@@ -5307,7 +5310,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>44983.454166666699</v>
       </c>
@@ -5375,7 +5378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>44983.458333333299</v>
       </c>
@@ -5443,7 +5446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>44983.462500000001</v>
       </c>
@@ -5511,7 +5514,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>44983.46875</v>
       </c>
@@ -5579,7 +5582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>44983.470833333296</v>
       </c>
@@ -5647,7 +5650,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>44983.472916666702</v>
       </c>
@@ -5715,7 +5718,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>44983.474999999999</v>
       </c>
@@ -5783,7 +5786,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>44983.614583333299</v>
       </c>
@@ -5851,7 +5854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>44983.616666666698</v>
       </c>
@@ -5919,7 +5922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>44983.618750000001</v>
       </c>
@@ -5987,7 +5990,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>44983.620833333298</v>
       </c>
@@ -6055,7 +6058,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>44983.622916666704</v>
       </c>
@@ -6123,7 +6126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>44984.754166666702</v>
       </c>
@@ -6191,7 +6194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>44984.756249999999</v>
       </c>
@@ -6259,7 +6262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>44984.758333333302</v>
       </c>
@@ -6327,7 +6330,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>44984.760416666701</v>
       </c>
@@ -6395,7 +6398,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>44984.762499999997</v>
       </c>
@@ -6463,7 +6466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>44984.764583333301</v>
       </c>
@@ -6531,7 +6534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>44985.65625</v>
       </c>
@@ -6599,7 +6602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>44985.658333333296</v>
       </c>
@@ -6667,7 +6670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>44985.660416666702</v>
       </c>
@@ -6735,7 +6738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>44985.662499999999</v>
       </c>
@@ -6803,7 +6806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>45056.460416666698</v>
       </c>
@@ -6871,7 +6874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>45056.462500000001</v>
       </c>
@@ -6939,7 +6942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>45056.464583333298</v>
       </c>
@@ -7007,7 +7010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>45056.466666666704</v>
       </c>
@@ -7075,7 +7078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>45056.46875</v>
       </c>
@@ -7143,7 +7146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>45056.495833333298</v>
       </c>
@@ -7211,7 +7214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>45056.497916666704</v>
       </c>
@@ -7279,7 +7282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>45056.5</v>
       </c>
@@ -7347,7 +7350,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>45056.502083333296</v>
       </c>
@@ -7415,7 +7418,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>45056.504166666702</v>
       </c>
@@ -7483,7 +7486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>45056.506249999999</v>
       </c>
@@ -7551,7 +7554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>45056.508333333302</v>
       </c>
@@ -7619,7 +7622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>45056.572916666701</v>
       </c>
@@ -7687,7 +7690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>45056.574999999997</v>
       </c>
@@ -7755,7 +7758,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>45057.414583333302</v>
       </c>
@@ -7823,7 +7826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
         <v>45057.418749999997</v>
       </c>
@@ -7891,7 +7894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
         <v>45057.420833333301</v>
       </c>
@@ -7959,7 +7962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
         <v>45057.422916666699</v>
       </c>
@@ -8027,7 +8030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
         <v>45058.354166666701</v>
       </c>
@@ -8095,7 +8098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
         <v>45058.356249999997</v>
       </c>
@@ -8163,7 +8166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
         <v>45058.358333333301</v>
       </c>
@@ -8231,7 +8234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
         <v>45058.360416666699</v>
       </c>
@@ -8299,7 +8302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
         <v>45059.4375</v>
       </c>
@@ -8367,7 +8370,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
         <v>45059.439583333296</v>
       </c>
@@ -8435,7 +8438,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
         <v>45059.441666666702</v>
       </c>
@@ -8503,7 +8506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
         <v>45062.431250000001</v>
       </c>
@@ -8571,7 +8574,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
         <v>45062.433333333298</v>
       </c>
@@ -8639,7 +8642,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
         <v>45062.435416666704</v>
       </c>
@@ -8707,7 +8710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
         <v>45062.4375</v>
       </c>
@@ -8775,7 +8778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
         <v>45062.452083333301</v>
       </c>
@@ -8843,7 +8846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>45062.454166666699</v>
       </c>
@@ -8911,7 +8914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
         <v>45062.456250000003</v>
       </c>
@@ -8979,7 +8982,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
         <v>45062.458333333299</v>
       </c>
@@ -9047,7 +9050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
         <v>45062.460416666698</v>
       </c>
@@ -9115,7 +9118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
         <v>45062.589583333298</v>
       </c>
@@ -9183,7 +9186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
         <v>45062.591666666704</v>
       </c>
@@ -9251,7 +9254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
         <v>45062.59375</v>
       </c>
@@ -9319,7 +9322,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
         <v>45062.595833333296</v>
       </c>
@@ -9387,7 +9390,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
         <v>45062.597916666702</v>
       </c>
@@ -9455,7 +9458,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
         <v>45062.6</v>
       </c>
@@ -9523,7 +9526,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
         <v>45063.535416666702</v>
       </c>
@@ -9591,7 +9594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
         <v>45063.537499999999</v>
       </c>
@@ -9659,7 +9662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
         <v>45064.414583333302</v>
       </c>
@@ -9727,7 +9730,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
         <v>45064.414583333302</v>
       </c>
@@ -9795,7 +9798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
         <v>45064.416666666701</v>
       </c>
@@ -9863,7 +9866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
         <v>45064.416666666701</v>
       </c>
@@ -9931,7 +9934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
         <v>45064.418749999997</v>
       </c>
@@ -9999,7 +10002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
         <v>45064.420833333301</v>
       </c>
@@ -10067,7 +10070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
         <v>45064.422916666699</v>
       </c>
@@ -10135,7 +10138,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
         <v>45064.458333333299</v>
       </c>
@@ -10203,7 +10206,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
         <v>45064.460416666698</v>
       </c>
@@ -10271,7 +10274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
         <v>45064.527083333298</v>
       </c>
@@ -10339,7 +10342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
         <v>45064.527083333298</v>
       </c>
@@ -10407,7 +10410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
         <v>45064.529166666704</v>
       </c>
@@ -10475,7 +10478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
         <v>45064.53125</v>
       </c>
@@ -10543,7 +10546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
         <v>45064.543749999997</v>
       </c>
@@ -10611,7 +10614,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
         <v>45064.545833333301</v>
       </c>
@@ -10679,7 +10682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
         <v>45064.597916666702</v>
       </c>
@@ -10747,7 +10750,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
         <v>45064.6</v>
       </c>
@@ -10815,7 +10818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
         <v>45064.602083333302</v>
       </c>
@@ -10883,7 +10886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
         <v>45064.604166666701</v>
       </c>
@@ -10951,7 +10954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
         <v>45064.606249999997</v>
       </c>
@@ -11019,7 +11022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
         <v>45064.608333333301</v>
       </c>
@@ -11087,7 +11090,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
         <v>45064.625</v>
       </c>
@@ -11155,7 +11158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
         <v>45064.627083333296</v>
       </c>
@@ -11223,7 +11226,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
         <v>45066.418749999997</v>
       </c>
@@ -11291,7 +11294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
         <v>45066.420833333301</v>
       </c>
@@ -11359,7 +11362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
         <v>45066.422916666699</v>
       </c>
@@ -11427,7 +11430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
         <v>45069.431250000001</v>
       </c>
@@ -11495,7 +11498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
         <v>45069.433333333298</v>
       </c>
@@ -11563,7 +11566,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
         <v>45069.435416666704</v>
       </c>
@@ -11631,7 +11634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
         <v>45069.4375</v>
       </c>
@@ -11699,7 +11702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
         <v>45069.439583333296</v>
       </c>
@@ -11767,7 +11770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
         <v>45069.441666666702</v>
       </c>
@@ -11835,7 +11838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
         <v>45069.443749999999</v>
       </c>
@@ -11903,7 +11906,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
         <v>45069.46875</v>
       </c>
@@ -11971,7 +11974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
         <v>45069.470833333296</v>
       </c>
@@ -12039,7 +12042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
         <v>45069.472916666702</v>
       </c>
@@ -12107,7 +12110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
         <v>45069.474999999999</v>
       </c>
@@ -12175,7 +12178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
         <v>45069.541666666701</v>
       </c>
@@ -12243,7 +12246,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
         <v>45069.543749999997</v>
       </c>
@@ -12311,7 +12314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
         <v>45069.566666666702</v>
       </c>
@@ -12379,7 +12382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
         <v>45069.568749999999</v>
       </c>
@@ -12447,7 +12450,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
         <v>45069.570833333302</v>
       </c>
@@ -12515,7 +12518,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
         <v>44454.620833333298</v>
       </c>
@@ -12553,7 +12556,7 @@
         <v>208.096910393667</v>
       </c>
       <c r="P178" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -12571,10 +12574,10 @@
         <v>0.20809691039366701</v>
       </c>
       <c r="V178" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
         <v>44454.622916666704</v>
       </c>
@@ -12612,7 +12615,7 @@
         <v>208.096910393667</v>
       </c>
       <c r="P179" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -12630,10 +12633,10 @@
         <v>0.20809691039366701</v>
       </c>
       <c r="V179" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
         <v>44454.625</v>
       </c>
@@ -12671,7 +12674,7 @@
         <v>208.096910393667</v>
       </c>
       <c r="P180" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q180">
         <v>3</v>
@@ -12689,10 +12692,10 @@
         <v>0.20809691039366701</v>
       </c>
       <c r="V180" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
         <v>44454.627083333296</v>
       </c>
@@ -12730,7 +12733,7 @@
         <v>208.096910393667</v>
       </c>
       <c r="P181" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -12748,10 +12751,10 @@
         <v>0.20809691039366701</v>
       </c>
       <c r="V181" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
         <v>44454.629166666702</v>
       </c>
@@ -12789,7 +12792,7 @@
         <v>208.096910393667</v>
       </c>
       <c r="P182" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -12807,10 +12810,10 @@
         <v>0.20809691039366701</v>
       </c>
       <c r="V182" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
         <v>44454.631249999999</v>
       </c>
@@ -12848,7 +12851,7 @@
         <v>208.096910393667</v>
       </c>
       <c r="P183" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -12866,10 +12869,10 @@
         <v>0.20809691039366701</v>
       </c>
       <c r="V183" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
         <v>44456.439583333296</v>
       </c>
@@ -12907,7 +12910,7 @@
         <v>92.895706465276902</v>
       </c>
       <c r="P184" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -12925,10 +12928,10 @@
         <v>9.2895706465276895E-2</v>
       </c>
       <c r="V184" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
         <v>44456.441666666702</v>
       </c>
@@ -12966,7 +12969,7 @@
         <v>92.895706465276902</v>
       </c>
       <c r="P185" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q185">
         <v>3</v>
@@ -12984,10 +12987,10 @@
         <v>9.2895706465276895E-2</v>
       </c>
       <c r="V185" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
         <v>44457.758333333302</v>
       </c>
@@ -13025,7 +13028,7 @@
         <v>322.14318807299901</v>
       </c>
       <c r="P186" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q186">
         <v>2</v>
@@ -13043,10 +13046,10 @@
         <v>0.32214318807299902</v>
       </c>
       <c r="V186" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
         <v>44457.760416666701</v>
       </c>
@@ -13084,7 +13087,7 @@
         <v>322.14318807299901</v>
       </c>
       <c r="P187" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -13102,10 +13105,10 @@
         <v>0.32214318807299902</v>
       </c>
       <c r="V187" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
         <v>44457.762499999997</v>
       </c>
@@ -13143,7 +13146,7 @@
         <v>322.14318807299901</v>
       </c>
       <c r="P188" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q188">
         <v>2</v>
@@ -13161,10 +13164,10 @@
         <v>0.32214318807299902</v>
       </c>
       <c r="V188" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
         <v>44844.339583333298</v>
       </c>
@@ -13202,7 +13205,7 @@
         <v>455.38640240708702</v>
       </c>
       <c r="P189" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q189">
         <v>4</v>
@@ -13220,10 +13223,10 @@
         <v>0.455386402407087</v>
       </c>
       <c r="V189" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
         <v>44844.341666666704</v>
       </c>
@@ -13261,7 +13264,7 @@
         <v>426.73902580930502</v>
       </c>
       <c r="P190" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -13279,10 +13282,10 @@
         <v>0.42673902580930501</v>
       </c>
       <c r="V190" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
         <v>44981.366666666698</v>
       </c>
@@ -13320,7 +13323,7 @@
         <v>226.61398162808501</v>
       </c>
       <c r="P191" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q191">
         <v>4</v>
@@ -13338,10 +13341,10 @@
         <v>0.22661398162808499</v>
       </c>
       <c r="V191" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
         <v>44981.368750000001</v>
       </c>
@@ -13379,7 +13382,7 @@
         <v>555.84196578767205</v>
       </c>
       <c r="P192" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q192">
         <v>6</v>
@@ -13397,10 +13400,10 @@
         <v>0.55584196578767198</v>
       </c>
       <c r="V192" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
         <v>44981.370833333298</v>
       </c>
@@ -13438,7 +13441,7 @@
         <v>555.84196578767205</v>
       </c>
       <c r="P193" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q193">
         <v>6</v>
@@ -13456,10 +13459,10 @@
         <v>0.55584196578767198</v>
       </c>
       <c r="V193" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
         <v>44981.439583333296</v>
       </c>
@@ -13497,7 +13500,7 @@
         <v>822.29649472184303</v>
       </c>
       <c r="P194" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q194">
         <v>5</v>
@@ -13515,10 +13518,10 @@
         <v>0.82229649472184396</v>
       </c>
       <c r="V194" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
         <v>44981.441666666702</v>
       </c>
@@ -13556,7 +13559,7 @@
         <v>418.32840463550701</v>
       </c>
       <c r="P195" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q195">
         <v>5</v>
@@ -13574,10 +13577,10 @@
         <v>0.41832840463550702</v>
       </c>
       <c r="V195" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A196" s="1">
         <v>44981.443749999999</v>
       </c>
@@ -13615,7 +13618,7 @@
         <v>809.48269387083405</v>
       </c>
       <c r="P196" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q196">
         <v>9</v>
@@ -13633,10 +13636,10 @@
         <v>0.80948269387083405</v>
       </c>
       <c r="V196" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
         <v>44981.466666666704</v>
       </c>
@@ -13674,7 +13677,7 @@
         <v>392.76112169763502</v>
       </c>
       <c r="P197" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q197">
         <v>4</v>
@@ -13692,10 +13695,10 @@
         <v>0.392761121697634</v>
       </c>
       <c r="V197" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
         <v>44981.46875</v>
       </c>
@@ -13733,7 +13736,7 @@
         <v>550.35095260262494</v>
       </c>
       <c r="P198" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q198">
         <v>5</v>
@@ -13751,10 +13754,10 @@
         <v>0.55035095260262501</v>
       </c>
       <c r="V198" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
         <v>44981.470833333296</v>
       </c>
@@ -13792,7 +13795,7 @@
         <v>392.76112169763502</v>
       </c>
       <c r="P199" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q199">
         <v>4</v>
@@ -13810,10 +13813,10 @@
         <v>0.392761121697634</v>
       </c>
       <c r="V199" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
         <v>44981.472916666702</v>
       </c>
@@ -13851,7 +13854,7 @@
         <v>476.533993439791</v>
       </c>
       <c r="P200" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q200">
         <v>4</v>
@@ -13869,10 +13872,10 @@
         <v>0.47653399343979103</v>
       </c>
       <c r="V200" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
         <v>44981.474999999999</v>
       </c>
@@ -13910,7 +13913,7 @@
         <v>476.533993439791</v>
       </c>
       <c r="P201" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q201">
         <v>4</v>
@@ -13928,10 +13931,10 @@
         <v>0.47653399343979103</v>
       </c>
       <c r="V201" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A202" s="1">
         <v>44981.477083333302</v>
       </c>
@@ -13969,7 +13972,7 @@
         <v>476.533993439791</v>
       </c>
       <c r="P202" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q202">
         <v>4</v>
@@ -13987,10 +13990,10 @@
         <v>0.47653399343979103</v>
       </c>
       <c r="V202" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="203" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A203" s="1">
         <v>44983.385416666701</v>
       </c>
@@ -14028,7 +14031,7 @@
         <v>99.244559365774805</v>
       </c>
       <c r="P203" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q203">
         <v>2</v>
@@ -14046,10 +14049,10 @@
         <v>9.9244559365774795E-2</v>
       </c>
       <c r="V203" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A204" s="1">
         <v>44983.393750000003</v>
       </c>
@@ -14087,7 +14090,7 @@
         <v>68.766250587273504</v>
       </c>
       <c r="P204" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q204">
         <v>4</v>
@@ -14105,10 +14108,10 @@
         <v>6.8766250587273495E-2</v>
       </c>
       <c r="V204" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="205" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A205" s="1">
         <v>44983.447916666701</v>
       </c>
@@ -14146,7 +14149,7 @@
         <v>167.74278078822701</v>
       </c>
       <c r="P205" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -14164,10 +14167,10 @@
         <v>0.16774278078822699</v>
       </c>
       <c r="V205" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A206" s="1">
         <v>44983.45</v>
       </c>
@@ -14205,7 +14208,7 @@
         <v>167.74278078822701</v>
       </c>
       <c r="P206" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q206">
         <v>4</v>
@@ -14223,10 +14226,10 @@
         <v>0.16774278078822699</v>
       </c>
       <c r="V206" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="207" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A207" s="1">
         <v>44983.614583333299</v>
       </c>
@@ -14264,7 +14267,7 @@
         <v>422.65473339350802</v>
       </c>
       <c r="P207" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q207">
         <v>4</v>
@@ -14282,10 +14285,10 @@
         <v>0.42265473339350801</v>
       </c>
       <c r="V207" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A208" s="1">
         <v>44983.616666666698</v>
       </c>
@@ -14323,7 +14326,7 @@
         <v>422.65473339350802</v>
       </c>
       <c r="P208" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q208">
         <v>4</v>
@@ -14341,10 +14344,10 @@
         <v>0.42265473339350801</v>
       </c>
       <c r="V208" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A209" s="1">
         <v>44983.618750000001</v>
       </c>
@@ -14382,7 +14385,7 @@
         <v>422.65473339350802</v>
       </c>
       <c r="P209" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -14400,10 +14403,10 @@
         <v>0.42265473339350801</v>
       </c>
       <c r="V209" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A210" s="1">
         <v>44983.622916666704</v>
       </c>
@@ -14441,7 +14444,7 @@
         <v>422.65473339350802</v>
       </c>
       <c r="P210" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -14459,10 +14462,10 @@
         <v>0.42265473339350801</v>
       </c>
       <c r="V210" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A211" s="1">
         <v>44985.660416666702</v>
       </c>
@@ -14500,7 +14503,7 @@
         <v>926.52227533251403</v>
       </c>
       <c r="P211" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q211">
         <v>5</v>
@@ -14518,10 +14521,10 @@
         <v>0.92652227533251397</v>
       </c>
       <c r="V211" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A212" s="1">
         <v>44985.662499999999</v>
       </c>
@@ -14559,7 +14562,7 @@
         <v>695.45135173483902</v>
       </c>
       <c r="P212" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q212">
         <v>3</v>
@@ -14577,10 +14580,10 @@
         <v>0.69545135173483896</v>
       </c>
       <c r="V212" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A213" s="1">
         <v>45056.460416666698</v>
       </c>
@@ -14618,7 +14621,7 @@
         <v>643.63143677875701</v>
       </c>
       <c r="P213" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q213">
         <v>4</v>
@@ -14636,10 +14639,10 @@
         <v>0.643631436778757</v>
       </c>
       <c r="V213" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A214" s="1">
         <v>45056.462500000001</v>
       </c>
@@ -14677,7 +14680,7 @@
         <v>643.63143677875701</v>
       </c>
       <c r="P214" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -14695,10 +14698,10 @@
         <v>0.643631436778757</v>
       </c>
       <c r="V214" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A215" s="1">
         <v>45056.464583333298</v>
       </c>
@@ -14736,7 +14739,7 @@
         <v>643.63143677875701</v>
       </c>
       <c r="P215" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -14754,10 +14757,10 @@
         <v>0.643631436778757</v>
       </c>
       <c r="V215" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="216" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A216" s="1">
         <v>45056.466666666704</v>
       </c>
@@ -14795,7 +14798,7 @@
         <v>643.63143677875701</v>
       </c>
       <c r="P216" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q216">
         <v>4</v>
@@ -14813,10 +14816,10 @@
         <v>0.643631436778757</v>
       </c>
       <c r="V216" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A217" s="1">
         <v>45056.497916666704</v>
       </c>
@@ -14854,7 +14857,7 @@
         <v>802.98141670250197</v>
       </c>
       <c r="P217" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q217">
         <v>4</v>
@@ -14872,10 +14875,10 @@
         <v>0.802981416702502</v>
       </c>
       <c r="V217" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A218" s="1">
         <v>45056.504166666702</v>
       </c>
@@ -14913,7 +14916,7 @@
         <v>802.98141670250197</v>
       </c>
       <c r="P218" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q218">
         <v>4</v>
@@ -14931,10 +14934,10 @@
         <v>0.802981416702502</v>
       </c>
       <c r="V218" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="219" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A219" s="1">
         <v>45056.572916666701</v>
       </c>
@@ -14972,7 +14975,7 @@
         <v>479.21832990862998</v>
       </c>
       <c r="P219" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q219">
         <v>4</v>
@@ -14990,10 +14993,10 @@
         <v>0.47921832990863</v>
       </c>
       <c r="V219" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="220" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="220" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A220" s="1">
         <v>45056.574999999997</v>
       </c>
@@ -15031,7 +15034,7 @@
         <v>527.39739461742101</v>
       </c>
       <c r="P220" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -15049,10 +15052,10 @@
         <v>0.52739739461742197</v>
       </c>
       <c r="V220" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="221" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A221" s="1">
         <v>45058.358333333301</v>
       </c>
@@ -15090,7 +15093,7 @@
         <v>1345.4151770864501</v>
       </c>
       <c r="P221" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q221">
         <v>5</v>
@@ -15108,10 +15111,10 @@
         <v>1.34541517708645</v>
       </c>
       <c r="V221" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="222" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A222" s="1">
         <v>45058.360416666699</v>
       </c>
@@ -15149,7 +15152,7 @@
         <v>1505.53555104213</v>
       </c>
       <c r="P222" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q222">
         <v>7</v>
@@ -15167,10 +15170,10 @@
         <v>1.50553555104213</v>
       </c>
       <c r="V222" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="223" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A223" s="1">
         <v>45059.439583333296</v>
       </c>
@@ -15208,7 +15211,7 @@
         <v>757.80460547406994</v>
       </c>
       <c r="P223" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q223">
         <v>8</v>
@@ -15226,10 +15229,10 @@
         <v>0.75780460547407003</v>
       </c>
       <c r="V223" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="224" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A224" s="1">
         <v>45059.441666666702</v>
       </c>
@@ -15267,7 +15270,7 @@
         <v>1116.7653857805201</v>
       </c>
       <c r="P224" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q224">
         <v>6</v>
@@ -15285,10 +15288,10 @@
         <v>1.11676538578052</v>
       </c>
       <c r="V224" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="225" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="225" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A225" s="1">
         <v>45062.431250000001</v>
       </c>
@@ -15326,7 +15329,7 @@
         <v>642.34481537292197</v>
       </c>
       <c r="P225" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q225">
         <v>2</v>
@@ -15344,10 +15347,10 @@
         <v>0.64234481537292198</v>
       </c>
       <c r="V225" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="226" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="226" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A226" s="1">
         <v>45062.433333333298</v>
       </c>
@@ -15385,7 +15388,7 @@
         <v>642.34481537292197</v>
       </c>
       <c r="P226" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q226">
         <v>2</v>
@@ -15403,10 +15406,10 @@
         <v>0.64234481537292198</v>
       </c>
       <c r="V226" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="227" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="227" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A227" s="1">
         <v>45063.535416666702</v>
       </c>
@@ -15444,7 +15447,7 @@
         <v>540.99585366679605</v>
       </c>
       <c r="P227" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q227">
         <v>4</v>
@@ -15462,10 +15465,10 @@
         <v>0.54099585366679603</v>
       </c>
       <c r="V227" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="228" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="228" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A228" s="1">
         <v>45063.537499999999</v>
       </c>
@@ -15503,7 +15506,7 @@
         <v>540.99585366679605</v>
       </c>
       <c r="P228" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q228">
         <v>4</v>
@@ -15521,10 +15524,10 @@
         <v>0.54099585366679603</v>
       </c>
       <c r="V228" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="229" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="229" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A229" s="1">
         <v>45066.418749999997</v>
       </c>
@@ -15562,7 +15565,7 @@
         <v>750.29962605641504</v>
       </c>
       <c r="P229" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q229">
         <v>7</v>
@@ -15580,10 +15583,10 @@
         <v>0.75029962605641498</v>
       </c>
       <c r="V229" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="230" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="230" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A230" s="1">
         <v>45066.420833333301</v>
       </c>
@@ -15621,7 +15624,7 @@
         <v>1060.2404618056801</v>
       </c>
       <c r="P230" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q230">
         <v>8</v>
@@ -15639,10 +15642,10 @@
         <v>1.06024046180568</v>
       </c>
       <c r="V230" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="231" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="231" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A231" s="1">
         <v>45066.422916666699</v>
       </c>
@@ -15680,7 +15683,7 @@
         <v>971.83558157447897</v>
       </c>
       <c r="P231" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q231">
         <v>7</v>
@@ -15698,10 +15701,10 @@
         <v>0.97183558157447802</v>
       </c>
       <c r="V231" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="232" spans="1:22" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="232" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A232" s="1">
         <v>44229.331250000003</v>
       </c>
@@ -15757,10 +15760,10 @@
         <v>0.26188999079271202</v>
       </c>
       <c r="V232" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="233" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="233" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A233" s="1">
         <v>44229.333333333299</v>
       </c>
@@ -15816,10 +15819,10 @@
         <v>0.26188999079271202</v>
       </c>
       <c r="V233" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="234" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="234" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A234" s="1">
         <v>44454.620833333298</v>
       </c>
@@ -15875,10 +15878,10 @@
         <v>0.20809691039366701</v>
       </c>
       <c r="V234" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="235" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="235" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A235" s="1">
         <v>44454.622916666704</v>
       </c>
@@ -15934,10 +15937,10 @@
         <v>0.20809691039366701</v>
       </c>
       <c r="V235" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="236" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="236" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A236" s="1">
         <v>44454.625</v>
       </c>
@@ -15993,10 +15996,10 @@
         <v>0.20809691039366701</v>
       </c>
       <c r="V236" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="237" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="237" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A237" s="1">
         <v>44454.627083333296</v>
       </c>
@@ -16052,10 +16055,10 @@
         <v>0.20809691039366701</v>
       </c>
       <c r="V237" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="238" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="238" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A238" s="1">
         <v>44454.629166666702</v>
       </c>
@@ -16111,10 +16114,10 @@
         <v>0.20809691039366701</v>
       </c>
       <c r="V238" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="239" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="239" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A239" s="1">
         <v>44454.631249999999</v>
       </c>
@@ -16170,10 +16173,10 @@
         <v>0.20809691039366701</v>
       </c>
       <c r="V239" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="240" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="240" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A240" s="1">
         <v>44454.65</v>
       </c>
@@ -16229,10 +16232,10 @@
         <v>0.72639056691760595</v>
       </c>
       <c r="V240" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="241" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="241" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A241" s="1">
         <v>44454.652083333298</v>
       </c>
@@ -16288,10 +16291,10 @@
         <v>0.72639056691760595</v>
       </c>
       <c r="V241" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="242" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="242" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A242" s="1">
         <v>44456.439583333296</v>
       </c>
@@ -16347,10 +16350,10 @@
         <v>9.2895706465276895E-2</v>
       </c>
       <c r="V242" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="243" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="243" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A243" s="1">
         <v>44456.441666666702</v>
       </c>
@@ -16406,10 +16409,10 @@
         <v>9.2895706465276895E-2</v>
       </c>
       <c r="V243" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="244" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A244" s="1">
         <v>44457.408333333296</v>
       </c>
@@ -16465,10 +16468,10 @@
         <v>0.33308644057455999</v>
       </c>
       <c r="V244" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="245" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="245" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A245" s="1">
         <v>44457.412499999999</v>
       </c>
@@ -16524,10 +16527,10 @@
         <v>0.33308644057455999</v>
       </c>
       <c r="V245" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="246" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A246" s="1">
         <v>44457.414583333302</v>
       </c>
@@ -16583,10 +16586,10 @@
         <v>0.33308644057455999</v>
       </c>
       <c r="V246" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="247" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A247" s="1">
         <v>44457.416666666701</v>
       </c>
@@ -16642,10 +16645,10 @@
         <v>0.33308644057455999</v>
       </c>
       <c r="V247" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="248" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="248" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A248" s="1">
         <v>44457.756249999999</v>
       </c>
@@ -16701,10 +16704,10 @@
         <v>0.28836706611375801</v>
       </c>
       <c r="V248" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="249" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="249" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A249" s="1">
         <v>44457.758333333302</v>
       </c>
@@ -16760,10 +16763,10 @@
         <v>0.32214318807299902</v>
       </c>
       <c r="V249" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="250" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A250" s="1">
         <v>44457.760416666701</v>
       </c>
@@ -16819,10 +16822,10 @@
         <v>0.32214318807299902</v>
       </c>
       <c r="V250" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="251" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A251" s="1">
         <v>44457.762499999997</v>
       </c>
@@ -16878,10 +16881,10 @@
         <v>0.32214318807299902</v>
       </c>
       <c r="V251" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="252" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="252" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A252" s="1">
         <v>44457.764583333301</v>
       </c>
@@ -16937,10 +16940,10 @@
         <v>0.28836706611375801</v>
       </c>
       <c r="V252" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="253" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="253" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A253" s="1">
         <v>44457.766666666699</v>
       </c>
@@ -16996,10 +16999,10 @@
         <v>0.28836706611375801</v>
       </c>
       <c r="V253" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="254" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="254" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A254" s="1">
         <v>44842.472916666702</v>
       </c>
@@ -17055,10 +17058,10 @@
         <v>0.429485629246113</v>
       </c>
       <c r="V254" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="255" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="255" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A255" s="1">
         <v>44842.474999999999</v>
       </c>
@@ -17114,10 +17117,10 @@
         <v>0.429485629246113</v>
       </c>
       <c r="V255" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="256" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="256" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A256" s="1">
         <v>44842.556250000001</v>
       </c>
@@ -17173,10 +17176,10 @@
         <v>0.57374358735261199</v>
       </c>
       <c r="V256" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="257" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="257" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A257" s="1">
         <v>44842.558333333298</v>
       </c>
@@ -17232,10 +17235,10 @@
         <v>0.57374358735261199</v>
       </c>
       <c r="V257" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="258" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="258" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A258" s="1">
         <v>44842.560416666704</v>
       </c>
@@ -17291,10 +17294,10 @@
         <v>0.57374358735261199</v>
       </c>
       <c r="V258" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="259" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="259" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A259" s="1">
         <v>44844.339583333298</v>
       </c>
@@ -17350,10 +17353,10 @@
         <v>0.455386402407087</v>
       </c>
       <c r="V259" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="260" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="260" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A260" s="1">
         <v>44844.341666666704</v>
       </c>
@@ -17409,10 +17412,10 @@
         <v>0.42673902580930501</v>
       </c>
       <c r="V260" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="261" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="261" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A261" s="1">
         <v>44844.65625</v>
       </c>
@@ -17468,10 +17471,10 @@
         <v>3.5409232533780997E-2</v>
       </c>
       <c r="V261" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="262" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="262" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A262" s="1">
         <v>44844.658333333296</v>
       </c>
@@ -17527,10 +17530,10 @@
         <v>3.5409232533780997E-2</v>
       </c>
       <c r="V262" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="263" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="263" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A263" s="1">
         <v>44844.660416666702</v>
       </c>
@@ -17586,10 +17589,10 @@
         <v>3.5409232533780997E-2</v>
       </c>
       <c r="V263" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="264" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="264" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A264" s="1">
         <v>44844.662499999999</v>
       </c>
@@ -17645,10 +17648,10 @@
         <v>3.5409232533780997E-2</v>
       </c>
       <c r="V264" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="265" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="265" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A265" s="1">
         <v>44844.664583333302</v>
       </c>
@@ -17704,10 +17707,10 @@
         <v>3.5409232533780997E-2</v>
       </c>
       <c r="V265" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="266" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="266" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A266" s="1">
         <v>44844.666666666701</v>
       </c>
@@ -17763,10 +17766,10 @@
         <v>3.5409232533780997E-2</v>
       </c>
       <c r="V266" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="267" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="267" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A267" s="1">
         <v>44846.545833333301</v>
       </c>
@@ -17822,10 +17825,10 @@
         <v>0.82504776647643296</v>
       </c>
       <c r="V267" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="268" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="268" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A268" s="1">
         <v>44846.547916666699</v>
       </c>
@@ -17881,10 +17884,10 @@
         <v>0.87895932374221897</v>
       </c>
       <c r="V268" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="269" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="269" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A269" s="1">
         <v>44846.55</v>
       </c>
@@ -17940,10 +17943,10 @@
         <v>0.65595772105925898</v>
       </c>
       <c r="V269" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="270" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="270" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A270" s="1">
         <v>44846.556250000001</v>
       </c>
@@ -17999,10 +18002,10 @@
         <v>1.25639274384115</v>
       </c>
       <c r="V270" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="271" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="271" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A271" s="1">
         <v>44846.558333333298</v>
       </c>
@@ -18058,10 +18061,10 @@
         <v>1.25639274384115</v>
       </c>
       <c r="V271" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="272" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="272" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A272" s="1">
         <v>44846.564583333296</v>
       </c>
@@ -18117,10 +18120,10 @@
         <v>1.04544834005061</v>
       </c>
       <c r="V272" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="273" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="273" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A273" s="1">
         <v>44846.566666666702</v>
       </c>
@@ -18176,10 +18179,10 @@
         <v>0.96097261239505505</v>
       </c>
       <c r="V273" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="274" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="274" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A274" s="1">
         <v>44847.452083333301</v>
       </c>
@@ -18235,10 +18238,10 @@
         <v>0.90805339393336704</v>
       </c>
       <c r="V274" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="275" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="275" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A275" s="1">
         <v>44847.454166666699</v>
       </c>
@@ -18294,10 +18297,10 @@
         <v>0.85205031148493904</v>
       </c>
       <c r="V275" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="276" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="276" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A276" s="1">
         <v>44847.456250000003</v>
       </c>
@@ -18353,10 +18356,10 @@
         <v>0.90805339393336704</v>
       </c>
       <c r="V276" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="277" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="277" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A277" s="1">
         <v>44847.458333333299</v>
       </c>
@@ -18412,10 +18415,10 @@
         <v>0.90805339393336704</v>
       </c>
       <c r="V277" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="278" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="278" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A278" s="1">
         <v>44981.366666666698</v>
       </c>
@@ -18471,10 +18474,10 @@
         <v>0.22661398162808499</v>
       </c>
       <c r="V278" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="279" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="279" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A279" s="1">
         <v>44981.368750000001</v>
       </c>
@@ -18530,10 +18533,10 @@
         <v>0.55584196578767198</v>
       </c>
       <c r="V279" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="280" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="280" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A280" s="1">
         <v>44981.370833333298</v>
       </c>
@@ -18589,10 +18592,10 @@
         <v>0.55584196578767198</v>
       </c>
       <c r="V280" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="281" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="281" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A281" s="1">
         <v>44981.435416666704</v>
       </c>
@@ -18648,10 +18651,10 @@
         <v>1.1887306988500299</v>
       </c>
       <c r="V281" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="282" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="282" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A282" s="1">
         <v>44981.4375</v>
       </c>
@@ -18707,10 +18710,10 @@
         <v>1.1887306988500299</v>
       </c>
       <c r="V282" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="283" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="283" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A283" s="1">
         <v>44981.439583333296</v>
       </c>
@@ -18766,10 +18769,10 @@
         <v>0.82229649472184396</v>
       </c>
       <c r="V283" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="284" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="284" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A284" s="1">
         <v>44981.441666666702</v>
       </c>
@@ -18825,10 +18828,10 @@
         <v>0.41832840463550702</v>
       </c>
       <c r="V284" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="285" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="285" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A285" s="1">
         <v>44981.443749999999</v>
       </c>
@@ -18884,10 +18887,10 @@
         <v>0.80948269387083405</v>
       </c>
       <c r="V285" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="286" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="286" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A286" s="1">
         <v>44981.466666666704</v>
       </c>
@@ -18943,10 +18946,10 @@
         <v>0.392761121697634</v>
       </c>
       <c r="V286" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="287" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="287" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A287" s="1">
         <v>44981.46875</v>
       </c>
@@ -19002,10 +19005,10 @@
         <v>0.55035095260262501</v>
       </c>
       <c r="V287" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="288" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="288" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A288" s="1">
         <v>44981.470833333296</v>
       </c>
@@ -19061,10 +19064,10 @@
         <v>0.392761121697634</v>
       </c>
       <c r="V288" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="289" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="289" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A289" s="1">
         <v>44981.472916666702</v>
       </c>
@@ -19120,10 +19123,10 @@
         <v>0.47653399343979103</v>
       </c>
       <c r="V289" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="290" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="290" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A290" s="1">
         <v>44981.474999999999</v>
       </c>
@@ -19179,10 +19182,10 @@
         <v>0.47653399343979103</v>
       </c>
       <c r="V290" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="291" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="291" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A291" s="1">
         <v>44981.477083333302</v>
       </c>
@@ -19238,10 +19241,10 @@
         <v>0.47653399343979103</v>
       </c>
       <c r="V291" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="292" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="292" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A292" s="1">
         <v>44983.383333333302</v>
       </c>
@@ -19297,10 +19300,10 @@
         <v>0.193128825170617</v>
       </c>
       <c r="V292" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="293" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="293" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A293" s="1">
         <v>44983.385416666701</v>
       </c>
@@ -19356,10 +19359,10 @@
         <v>9.9244559365774795E-2</v>
       </c>
       <c r="V293" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="294" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="294" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A294" s="1">
         <v>44983.387499999997</v>
       </c>
@@ -19415,10 +19418,10 @@
         <v>0.30432150344648101</v>
       </c>
       <c r="V294" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="295" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="295" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A295" s="1">
         <v>44983.391666666699</v>
       </c>
@@ -19474,10 +19477,10 @@
         <v>6.8766250587273495E-2</v>
       </c>
       <c r="V295" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="296" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="296" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A296" s="1">
         <v>44983.393750000003</v>
       </c>
@@ -19533,10 +19536,10 @@
         <v>6.8766250587273495E-2</v>
       </c>
       <c r="V296" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="297" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="297" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A297" s="1">
         <v>44983.443749999999</v>
       </c>
@@ -19592,10 +19595,10 @@
         <v>7.3389243825638703E-2</v>
       </c>
       <c r="V297" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="298" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="298" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A298" s="1">
         <v>44983.445833333302</v>
       </c>
@@ -19651,10 +19654,10 @@
         <v>7.3389243825638703E-2</v>
       </c>
       <c r="V298" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="299" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="299" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A299" s="1">
         <v>44983.447916666701</v>
       </c>
@@ -19710,10 +19713,10 @@
         <v>0.16774278078822699</v>
       </c>
       <c r="V299" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="300" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="300" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A300" s="1">
         <v>44983.45</v>
       </c>
@@ -19769,10 +19772,10 @@
         <v>0.16774278078822699</v>
       </c>
       <c r="V300" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="301" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="301" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A301" s="1">
         <v>44983.452083333301</v>
       </c>
@@ -19828,10 +19831,10 @@
         <v>8.4908463396214703E-2</v>
       </c>
       <c r="V301" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="302" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="302" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A302" s="1">
         <v>44983.454166666699</v>
       </c>
@@ -19887,10 +19890,10 @@
         <v>7.3389243825638703E-2</v>
       </c>
       <c r="V302" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="303" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="303" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A303" s="1">
         <v>44983.458333333299</v>
       </c>
@@ -19946,10 +19949,10 @@
         <v>0.124753849506176</v>
       </c>
       <c r="V303" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="304" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="304" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A304" s="1">
         <v>44983.462500000001</v>
       </c>
@@ -20005,10 +20008,10 @@
         <v>0.19285301634639301</v>
       </c>
       <c r="V304" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="305" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="305" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A305" s="1">
         <v>44983.46875</v>
       </c>
@@ -20064,10 +20067,10 @@
         <v>0.18215620840098201</v>
       </c>
       <c r="V305" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="306" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="306" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A306" s="1">
         <v>44983.470833333296</v>
       </c>
@@ -20123,10 +20126,10 @@
         <v>0.18215620840098201</v>
       </c>
       <c r="V306" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="307" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="307" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A307" s="1">
         <v>44983.472916666702</v>
       </c>
@@ -20182,10 +20185,10 @@
         <v>6.1435605943374903E-2</v>
       </c>
       <c r="V307" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="308" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="308" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A308" s="1">
         <v>44983.474999999999</v>
       </c>
@@ -20241,10 +20244,10 @@
         <v>6.1435605943374903E-2</v>
       </c>
       <c r="V308" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="309" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="309" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A309" s="1">
         <v>44983.614583333299</v>
       </c>
@@ -20300,10 +20303,10 @@
         <v>0.42265473339350801</v>
       </c>
       <c r="V309" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="310" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="310" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A310" s="1">
         <v>44983.616666666698</v>
       </c>
@@ -20359,10 +20362,10 @@
         <v>0.42265473339350801</v>
       </c>
       <c r="V310" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="311" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="311" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A311" s="1">
         <v>44983.618750000001</v>
       </c>
@@ -20418,10 +20421,10 @@
         <v>0.42265473339350801</v>
       </c>
       <c r="V311" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="312" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="312" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A312" s="1">
         <v>44983.620833333298</v>
       </c>
@@ -20477,10 +20480,10 @@
         <v>0.42265473339350801</v>
       </c>
       <c r="V312" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="313" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="313" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A313" s="1">
         <v>44983.622916666704</v>
       </c>
@@ -20536,10 +20539,10 @@
         <v>0.42265473339350801</v>
       </c>
       <c r="V313" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="314" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="314" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A314" s="1">
         <v>44984.754166666702</v>
       </c>
@@ -20595,10 +20598,10 @@
         <v>0.21011555080967401</v>
       </c>
       <c r="V314" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="315" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="315" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A315" s="1">
         <v>44984.756249999999</v>
       </c>
@@ -20654,10 +20657,10 @@
         <v>0.21011555080967401</v>
       </c>
       <c r="V315" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="316" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="316" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A316" s="1">
         <v>44984.758333333302</v>
       </c>
@@ -20713,10 +20716,10 @@
         <v>0.21011555080967401</v>
       </c>
       <c r="V316" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="317" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="317" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A317" s="1">
         <v>44984.760416666701</v>
       </c>
@@ -20772,10 +20775,10 @@
         <v>0.21011555080967401</v>
       </c>
       <c r="V317" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="318" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="318" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A318" s="1">
         <v>44984.762499999997</v>
       </c>
@@ -20831,10 +20834,10 @@
         <v>0.21011555080967401</v>
       </c>
       <c r="V318" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="319" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="319" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A319" s="1">
         <v>44984.764583333301</v>
       </c>
@@ -20890,10 +20893,10 @@
         <v>0.21011555080967401</v>
       </c>
       <c r="V319" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="320" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="320" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A320" s="1">
         <v>44985.65625</v>
       </c>
@@ -20949,10 +20952,10 @@
         <v>0.46136563021322102</v>
       </c>
       <c r="V320" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="321" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="321" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A321" s="1">
         <v>44985.658333333296</v>
       </c>
@@ -21008,10 +21011,10 @@
         <v>0.46136563021322102</v>
       </c>
       <c r="V321" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="322" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="322" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A322" s="1">
         <v>44985.660416666702</v>
       </c>
@@ -21067,10 +21070,10 @@
         <v>0.92652227533251397</v>
       </c>
       <c r="V322" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="323" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="323" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A323" s="1">
         <v>44985.662499999999</v>
       </c>
@@ -21126,10 +21129,10 @@
         <v>0.69545135173483896</v>
       </c>
       <c r="V323" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="324" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="324" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A324" s="1">
         <v>45056.460416666698</v>
       </c>
@@ -21185,10 +21188,10 @@
         <v>0.643631436778757</v>
       </c>
       <c r="V324" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="325" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="325" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A325" s="1">
         <v>45056.462500000001</v>
       </c>
@@ -21244,10 +21247,10 @@
         <v>0.643631436778757</v>
       </c>
       <c r="V325" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="326" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="326" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A326" s="1">
         <v>45056.464583333298</v>
       </c>
@@ -21303,10 +21306,10 @@
         <v>0.643631436778757</v>
       </c>
       <c r="V326" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="327" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="327" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A327" s="1">
         <v>45056.466666666704</v>
       </c>
@@ -21362,10 +21365,10 @@
         <v>0.643631436778757</v>
       </c>
       <c r="V327" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="328" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="328" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A328" s="1">
         <v>45056.46875</v>
       </c>
@@ -21421,10 +21424,10 @@
         <v>0.86987930985304296</v>
       </c>
       <c r="V328" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="329" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="329" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A329" s="1">
         <v>45056.495833333298</v>
       </c>
@@ -21480,10 +21483,10 @@
         <v>0.83655561579897697</v>
       </c>
       <c r="V329" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="330" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="330" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A330" s="1">
         <v>45056.497916666704</v>
       </c>
@@ -21539,10 +21542,10 @@
         <v>0.802981416702502</v>
       </c>
       <c r="V330" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="331" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="331" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A331" s="1">
         <v>45056.5</v>
       </c>
@@ -21598,10 +21601,10 @@
         <v>0.87042912693914398</v>
       </c>
       <c r="V331" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="332" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="332" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A332" s="1">
         <v>45056.502083333296</v>
       </c>
@@ -21657,10 +21660,10 @@
         <v>0.79060083643521695</v>
       </c>
       <c r="V332" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="333" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="333" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A333" s="1">
         <v>45056.504166666702</v>
       </c>
@@ -21716,10 +21719,10 @@
         <v>0.802981416702502</v>
       </c>
       <c r="V333" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="334" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="334" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A334" s="1">
         <v>45056.506249999999</v>
       </c>
@@ -21775,10 +21778,10 @@
         <v>0.73259717854105499</v>
       </c>
       <c r="V334" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="335" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="335" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A335" s="1">
         <v>45056.508333333302</v>
       </c>
@@ -21834,10 +21837,10 @@
         <v>0.74286483852274898</v>
       </c>
       <c r="V335" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="336" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="336" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A336" s="1">
         <v>45056.572916666701</v>
       </c>
@@ -21893,10 +21896,10 @@
         <v>0.47921832990863</v>
       </c>
       <c r="V336" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="337" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="337" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A337" s="1">
         <v>45056.574999999997</v>
       </c>
@@ -21952,10 +21955,10 @@
         <v>0.52739739461742197</v>
       </c>
       <c r="V337" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="338" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="338" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A338" s="1">
         <v>45057.414583333302</v>
       </c>
@@ -22011,10 +22014,10 @@
         <v>0.73763849033039197</v>
       </c>
       <c r="V338" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="339" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="339" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A339" s="1">
         <v>45057.418749999997</v>
       </c>
@@ -22070,10 +22073,10 @@
         <v>0.73763849033039197</v>
       </c>
       <c r="V339" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="340" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="340" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A340" s="1">
         <v>45057.420833333301</v>
       </c>
@@ -22129,10 +22132,10 @@
         <v>0.73763849033039197</v>
       </c>
       <c r="V340" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="341" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="341" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A341" s="1">
         <v>45057.422916666699</v>
       </c>
@@ -22188,10 +22191,10 @@
         <v>0.73763849033039197</v>
       </c>
       <c r="V341" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="342" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="342" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A342" s="1">
         <v>45058.354166666701</v>
       </c>
@@ -22247,10 +22250,10 @@
         <v>1.38218600565525</v>
       </c>
       <c r="V342" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="343" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="343" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A343" s="1">
         <v>45058.356249999997</v>
       </c>
@@ -22306,10 +22309,10 @@
         <v>1.38713526772572</v>
       </c>
       <c r="V343" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="344" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="344" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A344" s="1">
         <v>45058.358333333301</v>
       </c>
@@ -22365,10 +22368,10 @@
         <v>1.34541517708645</v>
       </c>
       <c r="V344" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="345" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="345" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A345" s="1">
         <v>45058.360416666699</v>
       </c>
@@ -22424,10 +22427,10 @@
         <v>1.50553555104213</v>
       </c>
       <c r="V345" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="346" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="346" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A346" s="1">
         <v>45059.4375</v>
       </c>
@@ -22483,10 +22486,10 @@
         <v>0.731707371784311</v>
       </c>
       <c r="V346" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="347" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="347" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A347" s="1">
         <v>45059.439583333296</v>
       </c>
@@ -22542,10 +22545,10 @@
         <v>0.75780460547407003</v>
       </c>
       <c r="V347" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="348" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="348" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A348" s="1">
         <v>45059.441666666702</v>
       </c>
@@ -22601,10 +22604,10 @@
         <v>1.11676538578052</v>
       </c>
       <c r="V348" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="349" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="349" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A349" s="1">
         <v>45062.431250000001</v>
       </c>
@@ -22660,10 +22663,10 @@
         <v>0.64234481537292198</v>
       </c>
       <c r="V349" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="350" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="350" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A350" s="1">
         <v>45062.433333333298</v>
       </c>
@@ -22719,10 +22722,10 @@
         <v>0.64234481537292198</v>
       </c>
       <c r="V350" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="351" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="351" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A351" s="1">
         <v>45062.435416666704</v>
       </c>
@@ -22778,10 +22781,10 @@
         <v>1.0587782413500699</v>
       </c>
       <c r="V351" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="352" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="352" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A352" s="1">
         <v>45062.4375</v>
       </c>
@@ -22837,10 +22840,10 @@
         <v>1.0587782413500699</v>
       </c>
       <c r="V352" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="353" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="353" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A353" s="1">
         <v>45062.452083333301</v>
       </c>
@@ -22896,10 +22899,10 @@
         <v>0.90760566087498795</v>
       </c>
       <c r="V353" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="354" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="354" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A354" s="1">
         <v>45062.454166666699</v>
       </c>
@@ -22955,10 +22958,10 @@
         <v>0.90760566087498795</v>
       </c>
       <c r="V354" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="355" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="355" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A355" s="1">
         <v>45062.456250000003</v>
       </c>
@@ -23014,10 +23017,10 @@
         <v>0.90760566087498795</v>
       </c>
       <c r="V355" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="356" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="356" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A356" s="1">
         <v>45062.458333333299</v>
       </c>
@@ -23073,10 +23076,10 @@
         <v>0.90760566087498795</v>
       </c>
       <c r="V356" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="357" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="357" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A357" s="1">
         <v>45062.460416666698</v>
       </c>
@@ -23132,10 +23135,10 @@
         <v>0.90760566087498795</v>
       </c>
       <c r="V357" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="358" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="358" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A358" s="1">
         <v>45062.589583333298</v>
       </c>
@@ -23191,10 +23194,10 @@
         <v>0.72914201566738901</v>
       </c>
       <c r="V358" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="359" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="359" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A359" s="1">
         <v>45062.591666666704</v>
       </c>
@@ -23250,10 +23253,10 @@
         <v>0.72914201566738901</v>
       </c>
       <c r="V359" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="360" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="360" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A360" s="1">
         <v>45062.59375</v>
       </c>
@@ -23309,10 +23312,10 @@
         <v>0.72914201566738901</v>
       </c>
       <c r="V360" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="361" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="361" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A361" s="1">
         <v>45062.595833333296</v>
       </c>
@@ -23368,10 +23371,10 @@
         <v>0.72914201566738901</v>
       </c>
       <c r="V361" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="362" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="362" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A362" s="1">
         <v>45062.597916666702</v>
       </c>
@@ -23427,10 +23430,10 @@
         <v>0.72914201566738901</v>
       </c>
       <c r="V362" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="363" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="363" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A363" s="1">
         <v>45062.6</v>
       </c>
@@ -23486,10 +23489,10 @@
         <v>0.72914201566738901</v>
       </c>
       <c r="V363" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="364" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="364" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A364" s="1">
         <v>45063.535416666702</v>
       </c>
@@ -23545,10 +23548,10 @@
         <v>0.54099585366679603</v>
       </c>
       <c r="V364" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="365" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="365" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A365" s="1">
         <v>45063.537499999999</v>
       </c>
@@ -23604,10 +23607,10 @@
         <v>0.54099585366679603</v>
       </c>
       <c r="V365" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="366" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="366" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A366" s="1">
         <v>45064.414583333302</v>
       </c>
@@ -23663,10 +23666,10 @@
         <v>8.7604832232997198E-2</v>
       </c>
       <c r="V366" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="367" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="367" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A367" s="1">
         <v>45064.414583333302</v>
       </c>
@@ -23722,10 +23725,10 @@
         <v>8.7604832232997198E-2</v>
       </c>
       <c r="V367" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="368" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="368" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A368" s="1">
         <v>45064.416666666701</v>
       </c>
@@ -23781,10 +23784,10 @@
         <v>8.7604832232997198E-2</v>
       </c>
       <c r="V368" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="369" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="369" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A369" s="1">
         <v>45064.416666666701</v>
       </c>
@@ -23840,10 +23843,10 @@
         <v>8.7604832232997198E-2</v>
       </c>
       <c r="V369" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="370" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="370" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A370" s="1">
         <v>45064.418749999997</v>
       </c>
@@ -23899,10 +23902,10 @@
         <v>0.113992791523481</v>
       </c>
       <c r="V370" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="371" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="371" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A371" s="1">
         <v>45064.420833333301</v>
       </c>
@@ -23958,10 +23961,10 @@
         <v>0.113992791523481</v>
       </c>
       <c r="V371" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="372" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="372" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A372" s="1">
         <v>45064.422916666699</v>
       </c>
@@ -24017,10 +24020,10 @@
         <v>0.113992791523481</v>
       </c>
       <c r="V372" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="373" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="373" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A373" s="1">
         <v>45064.458333333299</v>
       </c>
@@ -24076,10 +24079,10 @@
         <v>0.20727326449445599</v>
       </c>
       <c r="V373" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="374" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="374" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A374" s="1">
         <v>45064.460416666698</v>
       </c>
@@ -24135,10 +24138,10 @@
         <v>0.20727326449445599</v>
       </c>
       <c r="V374" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="375" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="375" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A375" s="1">
         <v>45064.527083333298</v>
       </c>
@@ -24194,10 +24197,10 @@
         <v>0.26949527904217702</v>
       </c>
       <c r="V375" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="376" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="376" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A376" s="1">
         <v>45064.527083333298</v>
       </c>
@@ -24253,10 +24256,10 @@
         <v>0.26949527904217702</v>
       </c>
       <c r="V376" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="377" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="377" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A377" s="1">
         <v>45064.529166666704</v>
       </c>
@@ -24312,10 +24315,10 @@
         <v>0.26949527904217702</v>
       </c>
       <c r="V377" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="378" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="378" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A378" s="1">
         <v>45064.53125</v>
       </c>
@@ -24371,10 +24374,10 @@
         <v>0.26949527904217702</v>
       </c>
       <c r="V378" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="379" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="379" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A379" s="1">
         <v>45064.543749999997</v>
       </c>
@@ -24430,10 +24433,10 @@
         <v>0.26427892429655198</v>
       </c>
       <c r="V379" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="380" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="380" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A380" s="1">
         <v>45064.545833333301</v>
       </c>
@@ -24489,10 +24492,10 @@
         <v>0.26427892429655198</v>
       </c>
       <c r="V380" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="381" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="381" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A381" s="1">
         <v>45064.597916666702</v>
       </c>
@@ -24548,10 +24551,10 @@
         <v>0.30700242390490501</v>
       </c>
       <c r="V381" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="382" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="382" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A382" s="1">
         <v>45064.6</v>
       </c>
@@ -24607,10 +24610,10 @@
         <v>0.30700242390490501</v>
       </c>
       <c r="V382" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="383" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="383" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A383" s="1">
         <v>45064.602083333302</v>
       </c>
@@ -24666,10 +24669,10 @@
         <v>0.30700242390490501</v>
       </c>
       <c r="V383" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="384" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="384" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A384" s="1">
         <v>45064.604166666701</v>
       </c>
@@ -24725,10 +24728,10 @@
         <v>0.30700242390490501</v>
       </c>
       <c r="V384" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="385" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="385" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A385" s="1">
         <v>45064.606249999997</v>
       </c>
@@ -24784,10 +24787,10 @@
         <v>0.30700242390490501</v>
       </c>
       <c r="V385" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="386" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="386" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A386" s="1">
         <v>45064.608333333301</v>
       </c>
@@ -24843,10 +24846,10 @@
         <v>0.30700242390490501</v>
       </c>
       <c r="V386" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="387" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="387" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A387" s="1">
         <v>45064.625</v>
       </c>
@@ -24902,10 +24905,10 @@
         <v>0.34645811145065297</v>
       </c>
       <c r="V387" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="388" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="388" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A388" s="1">
         <v>45064.627083333296</v>
       </c>
@@ -24961,10 +24964,10 @@
         <v>0.34645811145065297</v>
       </c>
       <c r="V388" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="389" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="389" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A389" s="1">
         <v>45066.418749999997</v>
       </c>
@@ -25020,10 +25023,10 @@
         <v>0.75029962605641498</v>
       </c>
       <c r="V389" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="390" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="390" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A390" s="1">
         <v>45066.420833333301</v>
       </c>
@@ -25079,10 +25082,10 @@
         <v>1.06024046180568</v>
       </c>
       <c r="V390" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="391" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="391" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A391" s="1">
         <v>45066.422916666699</v>
       </c>
@@ -25138,10 +25141,10 @@
         <v>0.97183558157447802</v>
       </c>
       <c r="V391" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="392" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="392" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A392" s="1">
         <v>45069.431250000001</v>
       </c>
@@ -25197,10 +25200,10 @@
         <v>0.197717331792919</v>
       </c>
       <c r="V392" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="393" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="393" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A393" s="1">
         <v>45069.433333333298</v>
       </c>
@@ -25256,10 +25259,10 @@
         <v>0.197717331792919</v>
       </c>
       <c r="V393" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="394" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="394" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A394" s="1">
         <v>45069.435416666704</v>
       </c>
@@ -25315,10 +25318,10 @@
         <v>0.197717331792919</v>
       </c>
       <c r="V394" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="395" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="395" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A395" s="1">
         <v>45069.4375</v>
       </c>
@@ -25374,10 +25377,10 @@
         <v>0.197717331792919</v>
       </c>
       <c r="V395" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="396" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="396" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A396" s="1">
         <v>45069.439583333296</v>
       </c>
@@ -25433,10 +25436,10 @@
         <v>0.197717331792919</v>
       </c>
       <c r="V396" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="397" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="397" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A397" s="1">
         <v>45069.441666666702</v>
       </c>
@@ -25492,10 +25495,10 @@
         <v>0.197717331792919</v>
       </c>
       <c r="V397" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="398" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="398" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A398" s="1">
         <v>45069.443749999999</v>
       </c>
@@ -25551,10 +25554,10 @@
         <v>0.197717331792919</v>
       </c>
       <c r="V398" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="399" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="399" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A399" s="1">
         <v>45069.46875</v>
       </c>
@@ -25610,10 +25613,10 @@
         <v>9.5679783919294895E-2</v>
       </c>
       <c r="V399" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="400" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="400" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A400" s="1">
         <v>45069.470833333296</v>
       </c>
@@ -25669,10 +25672,10 @@
         <v>9.5679783919294895E-2</v>
       </c>
       <c r="V400" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="401" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="401" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A401" s="1">
         <v>45069.472916666702</v>
       </c>
@@ -25728,10 +25731,10 @@
         <v>9.5679783919294895E-2</v>
       </c>
       <c r="V401" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="402" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="402" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A402" s="1">
         <v>45069.474999999999</v>
       </c>
@@ -25787,10 +25790,10 @@
         <v>9.5679783919294895E-2</v>
       </c>
       <c r="V402" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="403" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="403" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A403" s="1">
         <v>45069.541666666701</v>
       </c>
@@ -25846,10 +25849,10 @@
         <v>6.4738730936800701E-2</v>
       </c>
       <c r="V403" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="404" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="404" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A404" s="1">
         <v>45069.543749999997</v>
       </c>
@@ -25905,10 +25908,10 @@
         <v>6.4738730936800701E-2</v>
       </c>
       <c r="V404" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="405" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="405" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A405" s="1">
         <v>45069.566666666702</v>
       </c>
@@ -25964,10 +25967,10 @@
         <v>0.30650543283874598</v>
       </c>
       <c r="V405" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="406" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="406" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A406" s="1">
         <v>45069.568749999999</v>
       </c>
@@ -26023,10 +26026,10 @@
         <v>0.30650543283874598</v>
       </c>
       <c r="V406" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="407" spans="1:22" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="407" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A407" s="1">
         <v>45069.570833333302</v>
       </c>
@@ -26082,10 +26085,11 @@
         <v>0.30650543283874598</v>
       </c>
       <c r="V407" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:V407" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
